--- a/設計書/03返却・延長.xlsx
+++ b/設計書/03返却・延長.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\図書館システム機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B338352-89D9-494C-8879-582CA8729383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="0" windowWidth="18105" windowHeight="15600" firstSheet="3" activeTab="7" xr2:uid="{5C9BA609-3D6D-451A-990B-7DFFE77DD179}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="15600" activeTab="1" xr2:uid="{A6909B07-23B8-4092-AE01-30EC371DAA92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10700" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -3005,7 +3004,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3223,8 +3222,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2395537" y="11843039"/>
-          <a:ext cx="9928038" cy="6144922"/>
+          <a:off x="2394382" y="11657157"/>
+          <a:ext cx="9903793" cy="6207268"/>
           <a:chOff x="14820900" y="1384589"/>
           <a:chExt cx="8215377" cy="5300230"/>
         </a:xfrm>
@@ -3539,8 +3538,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2212211" y="19443373"/>
-          <a:ext cx="10060750" cy="6607502"/>
+          <a:off x="2211056" y="19333691"/>
+          <a:ext cx="10036505" cy="6636366"/>
           <a:chOff x="2146217" y="39935729"/>
           <a:chExt cx="9641085" cy="6368136"/>
         </a:xfrm>
@@ -3805,8 +3804,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2041813" y="27747192"/>
-          <a:ext cx="10686039" cy="6657108"/>
+          <a:off x="2040658" y="27669837"/>
+          <a:ext cx="10657176" cy="6700981"/>
           <a:chOff x="13831042" y="40159628"/>
           <a:chExt cx="9641085" cy="6368136"/>
         </a:xfrm>
@@ -4169,8 +4168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1852196" y="1091294"/>
-          <a:ext cx="9694137" cy="5976585"/>
+          <a:off x="1851041" y="1100530"/>
+          <a:ext cx="9681437" cy="5960422"/>
           <a:chOff x="1854437" y="1118188"/>
           <a:chExt cx="9673967" cy="6097609"/>
         </a:xfrm>
@@ -6105,128 +6104,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC26A92-CA13-40B9-8B79-674D4E5625B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
-    <col min="6" max="10" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
         <v>253</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1"/>
     </row>
   </sheetData>
@@ -6236,26 +6235,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A3442-AB74-4234-A907-31B0299FAFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="25" zoomScaleNormal="25" workbookViewId="0"/>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -6263,20 +6262,20 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K5" s="5">
         <v>1</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="5">
         <v>2</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K7" s="5">
         <v>3</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K8" s="5">
         <v>4</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="5">
         <v>5</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K10" s="5">
         <v>6</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K11" s="5">
         <v>7</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K12" s="5">
         <v>8</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K13" s="5">
         <v>9</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K14" s="5">
         <v>10</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" s="5">
         <v>11</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" s="5">
         <v>12</v>
       </c>
@@ -6578,7 +6577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" s="5">
         <v>13</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" s="5">
         <v>14</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K19" s="5">
         <v>15</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K20" s="5">
         <v>16</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K21" s="5">
         <v>17</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K22" s="5">
         <v>18</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K23" s="5">
         <v>19</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K24" s="5">
         <v>20</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K25" s="5">
         <v>21</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K26" s="5">
         <v>22</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K27" s="5">
         <v>23</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" s="5">
         <v>24</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K29" s="5">
         <v>25</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" s="5">
         <v>26</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="11:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="11:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" s="5">
         <v>27</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="11:17" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="11:17" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" s="5">
         <v>28</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:17" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" s="5">
         <v>29</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:17" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="5">
         <v>30</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" s="5">
         <v>31</v>
       </c>
@@ -7015,17 +7014,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K43" s="5" t="s">
         <v>4</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K44" s="5">
         <v>1</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K45" s="5">
         <v>2</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K46" s="5">
         <v>3</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K47" s="5">
         <v>4</v>
       </c>
@@ -7140,7 +7139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K48" s="5">
         <v>5</v>
       </c>
@@ -7163,12 +7162,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K74" s="5" t="s">
         <v>4</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K75" s="5">
         <v>1</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K76" s="5">
         <v>2</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K77" s="5">
         <v>3</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K78" s="5">
         <v>4</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1" t="s">
         <v>155</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K109" s="5">
         <v>1</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K110" s="5">
         <v>2</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K111" s="5">
         <v>3</v>
       </c>
@@ -7378,7 +7377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K112" s="5">
         <v>4</v>
       </c>
@@ -7401,7 +7400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="11:17" x14ac:dyDescent="0.4">
+    <row r="113" spans="11:17" x14ac:dyDescent="0.55000000000000004">
       <c r="K113" s="5">
         <v>5</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="11:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="114" spans="11:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="K114" s="5">
         <v>6</v>
       </c>
@@ -7456,15 +7455,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C961E6-AFBA-40CF-9F40-B85224B796D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -7477,7 +7476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA677CA7-E0A4-472E-AACA-88B5C437F42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7485,21 +7484,21 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" customWidth="1"/>
+    <col min="4" max="4" width="53.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
@@ -7528,7 +7527,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -7550,7 +7549,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -7572,7 +7571,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -7593,7 +7592,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -7614,7 +7613,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -7635,7 +7634,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -7656,7 +7655,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -7677,7 +7676,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12" t="s">
         <v>190</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12" t="s">
         <v>191</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="12" t="s">
         <v>192</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="12" t="s">
         <v>208</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
         <v>194</v>
       </c>
@@ -7837,7 +7836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="12" t="s">
         <v>195</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="12" t="s">
         <v>196</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="12" t="s">
         <v>213</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="12" t="s">
         <v>199</v>
       </c>
@@ -7924,7 +7923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC8F0-9644-4BB5-9EF3-32CAFD739C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7932,20 +7931,20 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7974,7 +7973,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8009,7 +8008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADA325-B524-45A1-B671-411BA58E9557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8017,21 +8016,21 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8126,7 +8125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E96D9-9059-446F-A39D-F80C3A473A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8137,17 +8136,17 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -8160,7 +8159,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8294,7 +8293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -8487,7 +8486,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -8579,7 +8578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -8600,7 +8599,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -8808,30 +8807,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42522D73-4E65-4C89-8884-6AF70FD997A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
